--- a/RequirementList Design project.xlsx
+++ b/RequirementList Design project.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="99">
   <si>
     <t>nr</t>
   </si>
@@ -44,6 +44,9 @@
     <t>Requirement</t>
   </si>
   <si>
+    <t>Use Cases</t>
+  </si>
+  <si>
     <t>Legend</t>
   </si>
   <si>
@@ -66,6 +69,9 @@
   </si>
   <si>
     <t>To handle the controlling barriers</t>
+  </si>
+  <si>
+    <t>Enter,Leave</t>
   </si>
   <si>
     <t>To record problems</t>
@@ -447,7 +453,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -475,22 +481,28 @@
     <xf numFmtId="49" fontId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="49" fontId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="6" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="7" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2405,7 +2417,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C83"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
@@ -2416,7 +2428,8 @@
     <col min="1" max="1" width="15.0703" style="5" customWidth="1"/>
     <col min="2" max="2" width="101.734" style="5" customWidth="1"/>
     <col min="3" max="3" width="101.734" style="5" customWidth="1"/>
-    <col min="4" max="256" width="16.3516" style="5" customWidth="1"/>
+    <col min="4" max="4" width="101.734" style="5" customWidth="1"/>
+    <col min="5" max="256" width="16.3516" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" customHeight="1">
@@ -2429,835 +2442,1080 @@
       <c r="C1" t="s" s="6">
         <v>10</v>
       </c>
+      <c r="D1" t="s" s="6">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" ht="13.2" customHeight="1">
       <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s" s="8">
         <v>12</v>
       </c>
+      <c r="C2" t="s" s="9">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s" s="8">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" ht="13" customHeight="1">
-      <c r="A3" s="9">
+      <c r="A3" s="10">
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s" s="11">
+      <c r="B3" t="s" s="11">
         <v>14</v>
       </c>
+      <c r="C3" s="12"/>
+      <c r="D3" t="s" s="13">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" ht="13" customHeight="1">
-      <c r="A4" s="9">
+      <c r="A4" s="10">
         <f>A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="11">
+      <c r="B4" t="s" s="13">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="C4" t="s" s="12">
-        <v>16</v>
+      <c r="D4" t="s" s="15">
+        <v>17</v>
       </c>
     </row>
     <row r="5" ht="13" customHeight="1">
-      <c r="A5" s="9">
+      <c r="A5" s="10">
         <f>A4+1</f>
         <v>4</v>
       </c>
-      <c r="B5" t="s" s="10">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s" s="10">
+      <c r="B5" t="s" s="11">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s" s="14">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="6" ht="13" customHeight="1">
-      <c r="A6" s="9">
+      <c r="A6" s="10">
         <f>A5+1</f>
         <v>5</v>
       </c>
-      <c r="B6" t="s" s="13">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s" s="13">
-        <v>19</v>
+      <c r="B6" t="s" s="16">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s" s="14">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s" s="16">
+        <v>21</v>
       </c>
     </row>
     <row r="7" ht="13" customHeight="1">
-      <c r="A7" s="9">
+      <c r="A7" s="10">
         <f>A6+1</f>
         <v>6</v>
       </c>
-      <c r="B7" t="s" s="10">
-        <v>20</v>
+      <c r="B7" t="s" s="11">
+        <v>22</v>
       </c>
       <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
     </row>
     <row r="8" ht="13" customHeight="1">
-      <c r="A8" s="9">
+      <c r="A8" s="10">
         <f>A7+1</f>
         <v>7</v>
       </c>
-      <c r="B8" t="s" s="15">
-        <v>21</v>
-      </c>
-      <c r="C8" s="14"/>
+      <c r="B8" t="s" s="17">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="D8" s="14"/>
     </row>
     <row r="9" ht="13" customHeight="1">
-      <c r="A9" s="9">
+      <c r="A9" s="10">
         <f>A8+1</f>
         <v>8</v>
       </c>
-      <c r="B9" t="s" s="15">
-        <v>22</v>
-      </c>
-      <c r="C9" s="14"/>
+      <c r="B9" t="s" s="17">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="D9" s="14"/>
     </row>
     <row r="10" ht="13" customHeight="1">
-      <c r="A10" s="9">
+      <c r="A10" s="10">
         <f>A9+1</f>
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="15">
-        <v>23</v>
-      </c>
-      <c r="C10" s="14"/>
+      <c r="B10" t="s" s="17">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="D10" s="14"/>
     </row>
     <row r="11" ht="13" customHeight="1">
-      <c r="A11" s="9">
+      <c r="A11" s="10">
         <f>A10+1</f>
         <v>10</v>
       </c>
-      <c r="B11" t="s" s="15">
-        <v>24</v>
-      </c>
-      <c r="C11" s="14"/>
+      <c r="B11" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="D11" s="14"/>
     </row>
     <row r="12" ht="13" customHeight="1">
-      <c r="A12" s="9">
+      <c r="A12" s="10">
         <f>A11+1</f>
         <v>11</v>
       </c>
-      <c r="B12" t="s" s="15">
-        <v>25</v>
-      </c>
-      <c r="C12" s="14"/>
+      <c r="B12" t="s" s="17">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="D12" s="14"/>
     </row>
     <row r="13" ht="13" customHeight="1">
-      <c r="A13" s="9">
+      <c r="A13" s="10">
         <f>A12+1</f>
         <v>12</v>
       </c>
-      <c r="B13" t="s" s="15">
-        <v>26</v>
-      </c>
-      <c r="C13" s="14"/>
+      <c r="B13" t="s" s="17">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="D13" s="14"/>
     </row>
     <row r="14" ht="13" customHeight="1">
-      <c r="A14" s="9">
+      <c r="A14" s="10">
         <f>A13+1</f>
         <v>13</v>
       </c>
-      <c r="B14" t="s" s="15">
-        <v>27</v>
-      </c>
-      <c r="C14" s="14"/>
+      <c r="B14" t="s" s="17">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="D14" s="14"/>
     </row>
     <row r="15" ht="13" customHeight="1">
-      <c r="A15" s="9">
+      <c r="A15" s="10">
         <f>A14+1</f>
         <v>14</v>
       </c>
-      <c r="B15" t="s" s="15">
-        <v>28</v>
-      </c>
-      <c r="C15" s="14"/>
+      <c r="B15" t="s" s="17">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="D15" s="14"/>
     </row>
     <row r="16" ht="13" customHeight="1">
-      <c r="A16" s="9">
+      <c r="A16" s="10">
         <f>A15+1</f>
         <v>15</v>
       </c>
-      <c r="B16" t="s" s="15">
-        <v>29</v>
-      </c>
-      <c r="C16" s="14"/>
+      <c r="B16" t="s" s="17">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="D16" s="14"/>
     </row>
     <row r="17" ht="13" customHeight="1">
-      <c r="A17" s="9">
+      <c r="A17" s="10">
         <f>A16+1</f>
         <v>16</v>
       </c>
-      <c r="B17" t="s" s="15">
-        <v>30</v>
-      </c>
-      <c r="C17" s="14"/>
+      <c r="B17" t="s" s="17">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="D17" s="14"/>
     </row>
     <row r="18" ht="13" customHeight="1">
-      <c r="A18" s="9">
+      <c r="A18" s="10">
         <f>A17+1</f>
         <v>17</v>
       </c>
-      <c r="B18" t="s" s="15">
-        <v>31</v>
-      </c>
-      <c r="C18" s="14"/>
+      <c r="B18" t="s" s="17">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="D18" s="14"/>
     </row>
     <row r="19" ht="13" customHeight="1">
-      <c r="A19" s="9">
+      <c r="A19" s="10">
         <f>A18+1</f>
         <v>18</v>
       </c>
-      <c r="B19" t="s" s="15">
-        <v>32</v>
-      </c>
-      <c r="C19" s="14"/>
+      <c r="B19" t="s" s="17">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="D19" s="14"/>
     </row>
     <row r="20" ht="13" customHeight="1">
-      <c r="A20" s="9">
+      <c r="A20" s="10">
         <f>A19+1</f>
         <v>19</v>
       </c>
-      <c r="B20" t="s" s="15">
-        <v>33</v>
-      </c>
-      <c r="C20" s="14"/>
+      <c r="B20" t="s" s="17">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" ht="13" customHeight="1">
-      <c r="A21" s="9">
+      <c r="A21" s="10">
         <f>A20+1</f>
         <v>20</v>
       </c>
-      <c r="B21" t="s" s="15">
-        <v>34</v>
-      </c>
-      <c r="C21" s="14"/>
+      <c r="B21" t="s" s="17">
+        <v>36</v>
+      </c>
+      <c r="C21" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="D21" s="14"/>
     </row>
     <row r="22" ht="13" customHeight="1">
-      <c r="A22" s="9">
+      <c r="A22" s="10">
         <f>A21+1</f>
         <v>21</v>
       </c>
-      <c r="B22" t="s" s="15">
-        <v>35</v>
-      </c>
-      <c r="C22" s="14"/>
+      <c r="B22" t="s" s="17">
+        <v>37</v>
+      </c>
+      <c r="C22" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="D22" s="14"/>
     </row>
     <row r="23" ht="13" customHeight="1">
-      <c r="A23" s="9">
+      <c r="A23" s="10">
         <f>A22+1</f>
         <v>22</v>
       </c>
-      <c r="B23" t="s" s="15">
-        <v>36</v>
-      </c>
-      <c r="C23" s="14"/>
+      <c r="B23" t="s" s="17">
+        <v>38</v>
+      </c>
+      <c r="C23" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="D23" s="14"/>
     </row>
     <row r="24" ht="13" customHeight="1">
-      <c r="A24" s="9">
+      <c r="A24" s="10">
         <f>A23+1</f>
         <v>23</v>
       </c>
-      <c r="B24" t="s" s="15">
-        <v>37</v>
-      </c>
-      <c r="C24" s="14"/>
+      <c r="B24" t="s" s="17">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="D24" s="14"/>
     </row>
     <row r="25" ht="13" customHeight="1">
-      <c r="A25" s="9">
+      <c r="A25" s="10">
         <f>A24+1</f>
         <v>24</v>
       </c>
-      <c r="B25" t="s" s="15">
-        <v>38</v>
-      </c>
-      <c r="C25" s="14"/>
+      <c r="B25" t="s" s="17">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="D25" s="14"/>
     </row>
     <row r="26" ht="13" customHeight="1">
-      <c r="A26" s="9">
+      <c r="A26" s="10">
         <f>A25+1</f>
         <v>25</v>
       </c>
-      <c r="B26" t="s" s="15">
-        <v>39</v>
-      </c>
-      <c r="C26" s="14"/>
+      <c r="B26" t="s" s="17">
+        <v>41</v>
+      </c>
+      <c r="C26" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="D26" s="14"/>
     </row>
     <row r="27" ht="13" customHeight="1">
-      <c r="A27" s="9">
+      <c r="A27" s="10">
         <f>A26+1</f>
         <v>26</v>
       </c>
-      <c r="B27" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="C27" s="14"/>
+      <c r="B27" t="s" s="11">
+        <v>42</v>
+      </c>
+      <c r="C27" t="s" s="14">
+        <v>19</v>
+      </c>
+      <c r="D27" s="14"/>
     </row>
     <row r="28" ht="13" customHeight="1">
-      <c r="A28" s="9">
+      <c r="A28" s="10">
         <f>A27+1</f>
         <v>27</v>
       </c>
-      <c r="B28" t="s" s="15">
-        <v>41</v>
-      </c>
-      <c r="C28" s="14"/>
+      <c r="B28" t="s" s="17">
+        <v>43</v>
+      </c>
+      <c r="C28" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="D28" s="14"/>
     </row>
     <row r="29" ht="13" customHeight="1">
-      <c r="A29" s="9">
+      <c r="A29" s="10">
         <f>A28+1</f>
         <v>28</v>
       </c>
-      <c r="B29" t="s" s="15">
-        <v>42</v>
-      </c>
-      <c r="C29" s="14"/>
+      <c r="B29" t="s" s="17">
+        <v>44</v>
+      </c>
+      <c r="C29" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" ht="13" customHeight="1">
-      <c r="A30" s="9">
+      <c r="A30" s="10">
         <f>A29+1</f>
         <v>29</v>
       </c>
-      <c r="B30" t="s" s="15">
-        <v>43</v>
-      </c>
-      <c r="C30" s="14"/>
+      <c r="B30" t="s" s="17">
+        <v>45</v>
+      </c>
+      <c r="C30" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="D30" s="14"/>
     </row>
     <row r="31" ht="13" customHeight="1">
-      <c r="A31" s="9">
+      <c r="A31" s="10">
         <f>A30+1</f>
         <v>30</v>
       </c>
-      <c r="B31" t="s" s="15">
-        <v>44</v>
-      </c>
-      <c r="C31" s="14"/>
+      <c r="B31" t="s" s="17">
+        <v>46</v>
+      </c>
+      <c r="C31" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="D31" s="14"/>
     </row>
     <row r="32" ht="13" customHeight="1">
-      <c r="A32" s="9">
+      <c r="A32" s="10">
         <f>A31+1</f>
         <v>31</v>
       </c>
-      <c r="B32" t="s" s="15">
-        <v>45</v>
-      </c>
-      <c r="C32" s="14"/>
+      <c r="B32" t="s" s="17">
+        <v>47</v>
+      </c>
+      <c r="C32" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="D32" s="14"/>
     </row>
     <row r="33" ht="13" customHeight="1">
-      <c r="A33" s="9">
+      <c r="A33" s="10">
         <f>A32+1</f>
         <v>32</v>
       </c>
-      <c r="B33" t="s" s="15">
-        <v>46</v>
-      </c>
-      <c r="C33" s="14"/>
+      <c r="B33" t="s" s="17">
+        <v>48</v>
+      </c>
+      <c r="C33" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="D33" s="14"/>
     </row>
     <row r="34" ht="13" customHeight="1">
-      <c r="A34" s="9">
+      <c r="A34" s="10">
         <f>A33+1</f>
         <v>33</v>
       </c>
-      <c r="B34" t="s" s="15">
-        <v>47</v>
-      </c>
-      <c r="C34" s="14"/>
+      <c r="B34" t="s" s="17">
+        <v>49</v>
+      </c>
+      <c r="C34" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="D34" s="14"/>
     </row>
     <row r="35" ht="13" customHeight="1">
-      <c r="A35" s="9">
+      <c r="A35" s="10">
         <f>A34+1</f>
         <v>34</v>
       </c>
-      <c r="B35" t="s" s="15">
-        <v>48</v>
-      </c>
-      <c r="C35" s="14"/>
+      <c r="B35" t="s" s="17">
+        <v>50</v>
+      </c>
+      <c r="C35" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="D35" s="14"/>
     </row>
     <row r="36" ht="13" customHeight="1">
-      <c r="A36" s="9">
+      <c r="A36" s="10">
         <f>A35+1</f>
         <v>35</v>
       </c>
-      <c r="B36" t="s" s="15">
-        <v>49</v>
-      </c>
-      <c r="C36" s="14"/>
+      <c r="B36" t="s" s="17">
+        <v>51</v>
+      </c>
+      <c r="C36" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="D36" s="14"/>
     </row>
     <row r="37" ht="13" customHeight="1">
-      <c r="A37" s="9">
+      <c r="A37" s="10">
         <f>A36+1</f>
         <v>36</v>
       </c>
-      <c r="B37" t="s" s="11">
-        <v>50</v>
-      </c>
-      <c r="C37" s="14"/>
+      <c r="B37" t="s" s="13">
+        <v>52</v>
+      </c>
+      <c r="C37" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="D37" s="14"/>
     </row>
     <row r="38" ht="13" customHeight="1">
-      <c r="A38" s="9">
+      <c r="A38" s="10">
         <f>A37+1</f>
         <v>37</v>
       </c>
-      <c r="B38" t="s" s="11">
-        <v>51</v>
-      </c>
-      <c r="C38" s="14"/>
+      <c r="B38" t="s" s="13">
+        <v>53</v>
+      </c>
+      <c r="C38" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="D38" s="14"/>
     </row>
     <row r="39" ht="13" customHeight="1">
-      <c r="A39" s="9">
+      <c r="A39" s="10">
         <f>A38+1</f>
         <v>38</v>
       </c>
-      <c r="B39" t="s" s="11">
-        <v>52</v>
-      </c>
-      <c r="C39" s="14"/>
+      <c r="B39" t="s" s="13">
+        <v>54</v>
+      </c>
+      <c r="C39" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="D39" s="14"/>
     </row>
     <row r="40" ht="13" customHeight="1">
-      <c r="A40" s="9">
+      <c r="A40" s="10">
         <f>A39+1</f>
         <v>39</v>
       </c>
-      <c r="B40" t="s" s="11">
-        <v>53</v>
-      </c>
-      <c r="C40" s="14"/>
+      <c r="B40" t="s" s="13">
+        <v>55</v>
+      </c>
+      <c r="C40" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="D40" s="14"/>
     </row>
     <row r="41" ht="13" customHeight="1">
-      <c r="A41" s="9">
+      <c r="A41" s="10">
         <f>A40+1</f>
         <v>40</v>
       </c>
-      <c r="B41" t="s" s="11">
-        <v>54</v>
-      </c>
-      <c r="C41" s="14"/>
+      <c r="B41" t="s" s="13">
+        <v>56</v>
+      </c>
+      <c r="C41" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="D41" s="14"/>
     </row>
     <row r="42" ht="13" customHeight="1">
-      <c r="A42" s="9">
+      <c r="A42" s="10">
         <f>A41+1</f>
         <v>41</v>
       </c>
-      <c r="B42" t="s" s="11">
-        <v>55</v>
-      </c>
-      <c r="C42" s="14"/>
+      <c r="B42" t="s" s="13">
+        <v>57</v>
+      </c>
+      <c r="C42" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="D42" s="14"/>
     </row>
     <row r="43" ht="13" customHeight="1">
-      <c r="A43" s="9">
+      <c r="A43" s="10">
         <f>A42+1</f>
         <v>42</v>
       </c>
-      <c r="B43" t="s" s="11">
-        <v>56</v>
-      </c>
-      <c r="C43" s="14"/>
+      <c r="B43" t="s" s="13">
+        <v>58</v>
+      </c>
+      <c r="C43" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="D43" s="14"/>
     </row>
     <row r="44" ht="13" customHeight="1">
-      <c r="A44" s="9">
+      <c r="A44" s="10">
         <f>A43+1</f>
         <v>43</v>
       </c>
-      <c r="B44" t="s" s="11">
-        <v>57</v>
-      </c>
-      <c r="C44" s="14"/>
+      <c r="B44" t="s" s="13">
+        <v>59</v>
+      </c>
+      <c r="C44" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="D44" s="14"/>
     </row>
     <row r="45" ht="13" customHeight="1">
-      <c r="A45" s="9">
+      <c r="A45" s="10">
         <f>A44+1</f>
         <v>44</v>
       </c>
-      <c r="B45" t="s" s="11">
-        <v>58</v>
-      </c>
-      <c r="C45" s="14"/>
+      <c r="B45" t="s" s="13">
+        <v>60</v>
+      </c>
+      <c r="C45" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="D45" s="14"/>
     </row>
     <row r="46" ht="13" customHeight="1">
-      <c r="A46" s="9">
+      <c r="A46" s="10">
         <f>A45+1</f>
         <v>45</v>
       </c>
-      <c r="B46" t="s" s="11">
-        <v>59</v>
-      </c>
-      <c r="C46" s="14"/>
+      <c r="B46" t="s" s="13">
+        <v>61</v>
+      </c>
+      <c r="C46" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="D46" s="14"/>
     </row>
     <row r="47" ht="13" customHeight="1">
-      <c r="A47" s="9">
+      <c r="A47" s="10">
         <f>A46+1</f>
         <v>46</v>
       </c>
-      <c r="B47" t="s" s="11">
-        <v>60</v>
-      </c>
-      <c r="C47" s="14"/>
+      <c r="B47" t="s" s="13">
+        <v>62</v>
+      </c>
+      <c r="C47" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="D47" s="14"/>
     </row>
     <row r="48" ht="13" customHeight="1">
-      <c r="A48" s="9">
+      <c r="A48" s="10">
         <f>A47+1</f>
         <v>47</v>
       </c>
-      <c r="B48" t="s" s="11">
-        <v>61</v>
-      </c>
-      <c r="C48" s="14"/>
+      <c r="B48" t="s" s="13">
+        <v>63</v>
+      </c>
+      <c r="C48" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="D48" s="14"/>
     </row>
     <row r="49" ht="13" customHeight="1">
-      <c r="A49" s="9">
+      <c r="A49" s="10">
         <f>A48+1</f>
         <v>48</v>
       </c>
-      <c r="B49" t="s" s="11">
-        <v>62</v>
-      </c>
-      <c r="C49" s="14"/>
+      <c r="B49" t="s" s="13">
+        <v>64</v>
+      </c>
+      <c r="C49" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="D49" s="14"/>
     </row>
     <row r="50" ht="13" customHeight="1">
-      <c r="A50" s="9">
+      <c r="A50" s="10">
         <f>A49+1</f>
         <v>49</v>
       </c>
-      <c r="B50" t="s" s="11">
-        <v>63</v>
-      </c>
-      <c r="C50" s="14"/>
+      <c r="B50" t="s" s="13">
+        <v>65</v>
+      </c>
+      <c r="C50" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="D50" s="14"/>
     </row>
     <row r="51" ht="13" customHeight="1">
-      <c r="A51" s="9">
+      <c r="A51" s="10">
         <f>A50+1</f>
         <v>50</v>
       </c>
-      <c r="B51" t="s" s="11">
-        <v>64</v>
-      </c>
-      <c r="C51" s="14"/>
+      <c r="B51" t="s" s="13">
+        <v>66</v>
+      </c>
+      <c r="C51" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="D51" s="14"/>
     </row>
     <row r="52" ht="13" customHeight="1">
-      <c r="A52" s="9">
+      <c r="A52" s="10">
         <f>A51+1</f>
         <v>51</v>
       </c>
-      <c r="B52" t="s" s="11">
-        <v>65</v>
-      </c>
-      <c r="C52" s="14"/>
+      <c r="B52" t="s" s="13">
+        <v>67</v>
+      </c>
+      <c r="C52" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="D52" s="14"/>
     </row>
     <row r="53" ht="13" customHeight="1">
-      <c r="A53" s="9">
+      <c r="A53" s="10">
         <f>A52+1</f>
         <v>52</v>
       </c>
-      <c r="B53" t="s" s="11">
-        <v>66</v>
-      </c>
-      <c r="C53" s="14"/>
+      <c r="B53" t="s" s="13">
+        <v>68</v>
+      </c>
+      <c r="C53" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="D53" s="14"/>
     </row>
     <row r="54" ht="13" customHeight="1">
-      <c r="A54" s="9">
+      <c r="A54" s="10">
         <f>A53+1</f>
         <v>53</v>
       </c>
-      <c r="B54" t="s" s="11">
-        <v>67</v>
-      </c>
-      <c r="C54" s="14"/>
+      <c r="B54" t="s" s="13">
+        <v>69</v>
+      </c>
+      <c r="C54" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="D54" s="14"/>
     </row>
     <row r="55" ht="13" customHeight="1">
-      <c r="A55" s="9">
+      <c r="A55" s="10">
         <f>A54+1</f>
         <v>54</v>
       </c>
-      <c r="B55" t="s" s="11">
-        <v>68</v>
-      </c>
-      <c r="C55" s="14"/>
+      <c r="B55" t="s" s="13">
+        <v>70</v>
+      </c>
+      <c r="C55" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="D55" s="14"/>
     </row>
     <row r="56" ht="13" customHeight="1">
-      <c r="A56" s="9">
+      <c r="A56" s="10">
         <f>A55+1</f>
         <v>55</v>
       </c>
-      <c r="B56" t="s" s="11">
-        <v>69</v>
-      </c>
-      <c r="C56" s="14"/>
+      <c r="B56" t="s" s="13">
+        <v>71</v>
+      </c>
+      <c r="C56" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="D56" s="14"/>
     </row>
     <row r="57" ht="13" customHeight="1">
-      <c r="A57" s="9">
+      <c r="A57" s="10">
         <f>A56+1</f>
         <v>56</v>
       </c>
-      <c r="B57" t="s" s="11">
-        <v>70</v>
-      </c>
-      <c r="C57" s="14"/>
+      <c r="B57" t="s" s="13">
+        <v>72</v>
+      </c>
+      <c r="C57" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="D57" s="14"/>
     </row>
     <row r="58" ht="13" customHeight="1">
-      <c r="A58" s="9">
+      <c r="A58" s="10">
         <f>A57+1</f>
         <v>57</v>
       </c>
-      <c r="B58" t="s" s="11">
-        <v>71</v>
-      </c>
-      <c r="C58" s="14"/>
+      <c r="B58" t="s" s="13">
+        <v>73</v>
+      </c>
+      <c r="C58" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="D58" s="14"/>
     </row>
     <row r="59" ht="13" customHeight="1">
-      <c r="A59" s="9">
+      <c r="A59" s="10">
         <f>A58+1</f>
         <v>58</v>
       </c>
-      <c r="B59" t="s" s="11">
-        <v>72</v>
-      </c>
-      <c r="C59" s="14"/>
+      <c r="B59" t="s" s="13">
+        <v>74</v>
+      </c>
+      <c r="C59" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="D59" s="14"/>
     </row>
     <row r="60" ht="13" customHeight="1">
-      <c r="A60" s="9">
+      <c r="A60" s="10">
         <f>A59+1</f>
         <v>59</v>
       </c>
-      <c r="B60" t="s" s="11">
-        <v>73</v>
-      </c>
-      <c r="C60" s="14"/>
+      <c r="B60" t="s" s="13">
+        <v>75</v>
+      </c>
+      <c r="C60" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="D60" s="14"/>
     </row>
     <row r="61" ht="13" customHeight="1">
-      <c r="A61" s="9">
+      <c r="A61" s="10">
         <f>A60+1</f>
         <v>60</v>
       </c>
-      <c r="B61" t="s" s="11">
-        <v>74</v>
-      </c>
-      <c r="C61" s="14"/>
+      <c r="B61" t="s" s="13">
+        <v>76</v>
+      </c>
+      <c r="C61" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="D61" s="14"/>
     </row>
     <row r="62" ht="13" customHeight="1">
-      <c r="A62" s="9">
+      <c r="A62" s="10">
         <f>A61+1</f>
         <v>61</v>
       </c>
-      <c r="B62" t="s" s="11">
-        <v>75</v>
-      </c>
-      <c r="C62" s="14"/>
+      <c r="B62" t="s" s="13">
+        <v>77</v>
+      </c>
+      <c r="C62" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="D62" s="14"/>
     </row>
     <row r="63" ht="13" customHeight="1">
-      <c r="A63" s="9">
+      <c r="A63" s="10">
         <f>A62+1</f>
         <v>62</v>
       </c>
-      <c r="B63" t="s" s="11">
-        <v>76</v>
-      </c>
-      <c r="C63" s="14"/>
+      <c r="B63" t="s" s="13">
+        <v>78</v>
+      </c>
+      <c r="C63" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="D63" s="14"/>
     </row>
     <row r="64" ht="13" customHeight="1">
-      <c r="A64" s="9">
+      <c r="A64" s="10">
         <f>A63+1</f>
         <v>63</v>
       </c>
-      <c r="B64" t="s" s="11">
-        <v>77</v>
-      </c>
-      <c r="C64" s="14"/>
+      <c r="B64" t="s" s="13">
+        <v>79</v>
+      </c>
+      <c r="C64" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="D64" s="14"/>
     </row>
     <row r="65" ht="13" customHeight="1">
-      <c r="A65" s="9">
+      <c r="A65" s="10">
         <f>A64+1</f>
         <v>64</v>
       </c>
-      <c r="B65" t="s" s="16">
-        <v>78</v>
-      </c>
-      <c r="C65" s="14"/>
+      <c r="B65" t="s" s="18">
+        <v>80</v>
+      </c>
+      <c r="C65" t="s" s="14">
+        <v>17</v>
+      </c>
+      <c r="D65" s="14"/>
     </row>
     <row r="66" ht="13" customHeight="1">
-      <c r="A66" s="9">
+      <c r="A66" s="10">
         <f>A65+1</f>
         <v>65</v>
       </c>
-      <c r="B66" t="s" s="16">
-        <v>79</v>
-      </c>
-      <c r="C66" s="14"/>
+      <c r="B66" t="s" s="18">
+        <v>81</v>
+      </c>
+      <c r="C66" t="s" s="14">
+        <v>17</v>
+      </c>
+      <c r="D66" s="14"/>
     </row>
     <row r="67" ht="13" customHeight="1">
-      <c r="A67" s="9">
+      <c r="A67" s="10">
         <f>A66+1</f>
         <v>66</v>
       </c>
-      <c r="B67" t="s" s="16">
-        <v>80</v>
-      </c>
-      <c r="C67" s="14"/>
+      <c r="B67" t="s" s="18">
+        <v>82</v>
+      </c>
+      <c r="C67" t="s" s="14">
+        <v>17</v>
+      </c>
+      <c r="D67" s="14"/>
     </row>
     <row r="68" ht="13" customHeight="1">
-      <c r="A68" s="9">
+      <c r="A68" s="10">
         <f>A67+1</f>
         <v>67</v>
       </c>
-      <c r="B68" t="s" s="16">
-        <v>81</v>
-      </c>
-      <c r="C68" s="14"/>
+      <c r="B68" t="s" s="18">
+        <v>83</v>
+      </c>
+      <c r="C68" t="s" s="14">
+        <v>17</v>
+      </c>
+      <c r="D68" s="14"/>
     </row>
     <row r="69" ht="13" customHeight="1">
-      <c r="A69" s="9">
+      <c r="A69" s="10">
         <f>A68+1</f>
         <v>68</v>
       </c>
-      <c r="B69" t="s" s="16">
-        <v>82</v>
-      </c>
-      <c r="C69" s="14"/>
+      <c r="B69" t="s" s="18">
+        <v>84</v>
+      </c>
+      <c r="C69" t="s" s="14">
+        <v>17</v>
+      </c>
+      <c r="D69" s="14"/>
     </row>
     <row r="70" ht="13" customHeight="1">
-      <c r="A70" s="9">
+      <c r="A70" s="10">
         <f>A69+1</f>
         <v>69</v>
       </c>
-      <c r="B70" t="s" s="16">
-        <v>83</v>
-      </c>
-      <c r="C70" s="14"/>
+      <c r="B70" t="s" s="18">
+        <v>85</v>
+      </c>
+      <c r="C70" t="s" s="14">
+        <v>17</v>
+      </c>
+      <c r="D70" s="14"/>
     </row>
     <row r="71" ht="13" customHeight="1">
-      <c r="A71" s="9">
+      <c r="A71" s="10">
         <f>A70+1</f>
         <v>70</v>
       </c>
-      <c r="B71" t="s" s="16">
-        <v>84</v>
-      </c>
-      <c r="C71" s="14"/>
+      <c r="B71" t="s" s="18">
+        <v>86</v>
+      </c>
+      <c r="C71" t="s" s="14">
+        <v>17</v>
+      </c>
+      <c r="D71" s="14"/>
     </row>
     <row r="72" ht="13" customHeight="1">
-      <c r="A72" s="9">
+      <c r="A72" s="10">
         <f>A71+1</f>
         <v>71</v>
       </c>
-      <c r="B72" t="s" s="16">
-        <v>85</v>
-      </c>
-      <c r="C72" s="14"/>
+      <c r="B72" t="s" s="18">
+        <v>87</v>
+      </c>
+      <c r="C72" t="s" s="14">
+        <v>17</v>
+      </c>
+      <c r="D72" s="14"/>
     </row>
     <row r="73" ht="13" customHeight="1">
-      <c r="A73" s="9">
+      <c r="A73" s="10">
         <f>A72+1</f>
         <v>72</v>
       </c>
-      <c r="B73" t="s" s="13">
-        <v>86</v>
-      </c>
-      <c r="C73" s="14"/>
+      <c r="B73" t="s" s="16">
+        <v>88</v>
+      </c>
+      <c r="C73" t="s" s="14">
+        <v>21</v>
+      </c>
+      <c r="D73" s="14"/>
     </row>
     <row r="74" ht="13" customHeight="1">
-      <c r="A74" s="9">
+      <c r="A74" s="10">
         <f>A73+1</f>
         <v>73</v>
       </c>
-      <c r="B74" t="s" s="13">
-        <v>87</v>
-      </c>
-      <c r="C74" s="14"/>
+      <c r="B74" t="s" s="16">
+        <v>89</v>
+      </c>
+      <c r="C74" t="s" s="14">
+        <v>21</v>
+      </c>
+      <c r="D74" s="14"/>
     </row>
     <row r="75" ht="13" customHeight="1">
-      <c r="A75" s="9">
+      <c r="A75" s="10">
         <f>A74+1</f>
         <v>74</v>
       </c>
-      <c r="B75" t="s" s="13">
-        <v>88</v>
-      </c>
-      <c r="C75" s="14"/>
+      <c r="B75" t="s" s="16">
+        <v>90</v>
+      </c>
+      <c r="C75" t="s" s="14">
+        <v>21</v>
+      </c>
+      <c r="D75" s="14"/>
     </row>
     <row r="76" ht="13" customHeight="1">
-      <c r="A76" s="9">
+      <c r="A76" s="10">
         <f>A75+1</f>
         <v>75</v>
       </c>
-      <c r="B76" t="s" s="13">
-        <v>89</v>
-      </c>
-      <c r="C76" s="14"/>
+      <c r="B76" t="s" s="16">
+        <v>91</v>
+      </c>
+      <c r="C76" t="s" s="14">
+        <v>21</v>
+      </c>
+      <c r="D76" s="14"/>
     </row>
     <row r="77" ht="13" customHeight="1">
-      <c r="A77" s="9">
+      <c r="A77" s="10">
         <f>A76+1</f>
         <v>76</v>
       </c>
-      <c r="B77" t="s" s="13">
-        <v>90</v>
-      </c>
-      <c r="C77" s="14"/>
+      <c r="B77" t="s" s="16">
+        <v>92</v>
+      </c>
+      <c r="C77" t="s" s="14">
+        <v>21</v>
+      </c>
+      <c r="D77" s="14"/>
     </row>
     <row r="78" ht="13" customHeight="1">
-      <c r="A78" s="9">
+      <c r="A78" s="10">
         <f>A77+1</f>
         <v>77</v>
       </c>
-      <c r="B78" t="s" s="13">
-        <v>91</v>
-      </c>
-      <c r="C78" s="14"/>
+      <c r="B78" t="s" s="16">
+        <v>93</v>
+      </c>
+      <c r="C78" t="s" s="14">
+        <v>21</v>
+      </c>
+      <c r="D78" s="14"/>
     </row>
     <row r="79" ht="13" customHeight="1">
-      <c r="A79" s="9">
+      <c r="A79" s="10">
         <f>A78+1</f>
         <v>78</v>
       </c>
-      <c r="B79" t="s" s="13">
-        <v>92</v>
-      </c>
-      <c r="C79" s="14"/>
+      <c r="B79" t="s" s="16">
+        <v>94</v>
+      </c>
+      <c r="C79" t="s" s="14">
+        <v>21</v>
+      </c>
+      <c r="D79" s="14"/>
     </row>
     <row r="80" ht="13" customHeight="1">
-      <c r="A80" s="9">
+      <c r="A80" s="10">
         <f>A79+1</f>
         <v>79</v>
       </c>
-      <c r="B80" t="s" s="13">
-        <v>93</v>
-      </c>
-      <c r="C80" s="14"/>
+      <c r="B80" t="s" s="16">
+        <v>95</v>
+      </c>
+      <c r="C80" t="s" s="14">
+        <v>21</v>
+      </c>
+      <c r="D80" s="14"/>
     </row>
     <row r="81" ht="13" customHeight="1">
-      <c r="A81" s="9">
+      <c r="A81" s="10">
         <f>A80+1</f>
         <v>80</v>
       </c>
-      <c r="B81" t="s" s="13">
-        <v>94</v>
-      </c>
-      <c r="C81" s="14"/>
+      <c r="B81" t="s" s="16">
+        <v>96</v>
+      </c>
+      <c r="C81" t="s" s="14">
+        <v>21</v>
+      </c>
+      <c r="D81" s="14"/>
     </row>
     <row r="82" ht="13" customHeight="1">
-      <c r="A82" s="9">
+      <c r="A82" s="10">
         <f>A81+1</f>
         <v>81</v>
       </c>
-      <c r="B82" t="s" s="13">
-        <v>95</v>
-      </c>
-      <c r="C82" s="14"/>
+      <c r="B82" t="s" s="16">
+        <v>97</v>
+      </c>
+      <c r="C82" t="s" s="14">
+        <v>21</v>
+      </c>
+      <c r="D82" s="14"/>
     </row>
     <row r="83" ht="13" customHeight="1">
-      <c r="A83" s="9">
+      <c r="A83" s="10">
         <f>A82+1</f>
         <v>82</v>
       </c>
-      <c r="B83" t="s" s="13">
-        <v>96</v>
-      </c>
-      <c r="C83" s="14"/>
+      <c r="B83" t="s" s="16">
+        <v>98</v>
+      </c>
+      <c r="C83" t="s" s="14">
+        <v>21</v>
+      </c>
+      <c r="D83" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/RequirementList Design project.xlsx
+++ b/RequirementList Design project.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jan Reinder\Documents\GitHub\design-project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="36" windowWidth="15960" windowHeight="18084" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet name="Sheet 2" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="99">
   <si>
     <t>nr</t>
   </si>
@@ -50,15 +58,9 @@
     <t>Legend</t>
   </si>
   <si>
-    <t xml:space="preserve">To issue parking tickets </t>
-  </si>
-  <si>
     <t>Enter</t>
   </si>
   <si>
-    <t>To issue season tickets</t>
-  </si>
-  <si>
     <t>Pay</t>
   </si>
   <si>
@@ -83,15 +85,9 @@
     <t>To pay in advance for parking</t>
   </si>
   <si>
-    <t>To reserve spaces for season ticket holders</t>
-  </si>
-  <si>
     <t>To use seasontickets on weekdays only</t>
   </si>
   <si>
-    <t>To reserve spaces up to a maximum of 10% for season ticket holders</t>
-  </si>
-  <si>
     <t>To use all the spaces for all users in the weekend</t>
   </si>
   <si>
@@ -167,9 +163,6 @@
     <t>To allow new cars a ticket when the park is not full anymore</t>
   </si>
   <si>
-    <t>To allow season ticket holders a ticket when reserved spaces are still available when the rest of the carpark is full</t>
-  </si>
-  <si>
     <t>To pay for a visit a visitor has to insert a ticket in a paystation</t>
   </si>
   <si>
@@ -309,28 +302,30 @@
   </si>
   <si>
     <t>To create statistics to see if the maintenance firm does their job</t>
+  </si>
+  <si>
+    <t>To issue season pass</t>
+  </si>
+  <si>
+    <t>To reserve spaces up to a maximum of 10% for season pass holders</t>
+  </si>
+  <si>
+    <t>To allow season pass holders a ticket when reserved spaces are still available when the rest of the carpark is full</t>
+  </si>
+  <si>
+    <t>To reserve spaces for season pass holders</t>
+  </si>
+  <si>
+    <t>To issue parking ticket</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="13"/>
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
@@ -449,68 +444,28 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,32 +474,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ff7c9547"/>
-      <rgbColor rgb="ff3f6797"/>
-      <rgbColor rgb="ff99403d"/>
-      <rgbColor rgb="fff79646"/>
-      <rgbColor rgb="ff665081"/>
-      <rgbColor rgb="ffc57838"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FF7C9547"/>
+      <rgbColor rgb="FF3F6797"/>
+      <rgbColor rgb="FF99403D"/>
+      <rgbColor rgb="FFF79646"/>
+      <rgbColor rgb="FF665081"/>
+      <rgbColor rgb="FFC57838"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -676,7 +684,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -752,7 +760,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -771,7 +779,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -801,7 +809,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -827,7 +835,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -853,7 +861,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -879,7 +887,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -905,7 +913,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -931,7 +939,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -957,7 +965,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -983,7 +991,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1009,7 +1017,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1022,9 +1030,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1039,7 +1053,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="38000"/>
             </a:srgbClr>
@@ -1047,7 +1061,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1066,7 +1080,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1092,7 +1106,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1118,7 +1132,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1144,7 +1158,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1170,7 +1184,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1196,7 +1210,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1222,7 +1236,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1248,7 +1262,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1274,7 +1288,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1300,7 +1314,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1313,9 +1327,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1329,7 +1349,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1348,7 +1368,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1378,7 +1398,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1404,7 +1424,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1430,7 +1450,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1456,7 +1476,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1482,7 +1502,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1508,7 +1528,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1534,7 +1554,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1560,7 +1580,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1586,7 +1606,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1599,137 +1619,142 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:IV85"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.3333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="122" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="1" customWidth="1"/>
-    <col min="6" max="256" width="17.3516" style="1" customWidth="1"/>
+    <col min="3" max="5" width="14.44140625" style="1" customWidth="1"/>
+    <col min="6" max="256" width="17.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2" t="s" s="2">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" ht="13.65" customHeight="1">
+    <row r="3" spans="1:5" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" t="s" s="2">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" t="s" s="2">
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" t="s" s="2">
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" t="s" s="2">
+      <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" t="s" s="2">
+      <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" t="s" s="2">
+      <c r="C8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" t="s" s="2">
+      <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1738,7 +1763,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1747,7 +1772,7 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1756,7 +1781,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1765,7 +1790,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1774,7 +1799,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1783,7 +1808,7 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1792,7 +1817,7 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1801,7 +1826,7 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1810,7 +1835,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1819,7 +1844,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1828,7 +1853,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -1837,7 +1862,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -1846,7 +1871,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -1855,7 +1880,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -1864,7 +1889,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -1873,7 +1898,7 @@
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -1882,7 +1907,7 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -1891,7 +1916,7 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -1900,7 +1925,7 @@
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -1909,7 +1934,7 @@
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -1918,7 +1943,7 @@
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -1927,7 +1952,7 @@
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -1936,7 +1961,7 @@
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -1945,7 +1970,7 @@
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -1954,7 +1979,7 @@
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -1963,7 +1988,7 @@
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -1972,7 +1997,7 @@
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -1981,7 +2006,7 @@
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -1990,7 +2015,7 @@
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -1999,7 +2024,7 @@
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -2008,7 +2033,7 @@
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -2017,7 +2042,7 @@
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -2026,7 +2051,7 @@
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -2035,7 +2060,7 @@
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -2044,7 +2069,7 @@
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -2053,7 +2078,7 @@
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -2062,7 +2087,7 @@
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -2071,7 +2096,7 @@
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -2080,7 +2105,7 @@
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -2089,18 +2114,18 @@
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>49</v>
       </c>
-      <c r="B50" t="s" s="2">
+      <c r="B50" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -2109,7 +2134,7 @@
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -2118,7 +2143,7 @@
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -2127,7 +2152,7 @@
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -2136,7 +2161,7 @@
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -2145,7 +2170,7 @@
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -2154,7 +2179,7 @@
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -2163,7 +2188,7 @@
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -2172,7 +2197,7 @@
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -2181,7 +2206,7 @@
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -2190,7 +2215,7 @@
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -2199,18 +2224,18 @@
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>61</v>
       </c>
-      <c r="B62" t="s" s="2">
+      <c r="B62" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -2219,7 +2244,7 @@
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -2228,7 +2253,7 @@
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -2237,7 +2262,7 @@
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -2246,7 +2271,7 @@
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -2255,7 +2280,7 @@
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -2264,29 +2289,29 @@
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>68</v>
       </c>
-      <c r="B69" t="s" s="2">
+      <c r="B69" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>69</v>
       </c>
-      <c r="B70" t="s" s="2">
+      <c r="B70" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -2295,7 +2320,7 @@
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -2304,7 +2329,7 @@
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -2313,18 +2338,18 @@
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>73</v>
       </c>
-      <c r="B74" t="s" s="2">
+      <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -2333,70 +2358,70 @@
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="4"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="4"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="4"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="4"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="4"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="4"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="4"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="4"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="4"/>
       <c r="C85" s="3"/>
@@ -2405,7 +2430,7 @@
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2413,1113 +2438,1112 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:IV83"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.45" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.0703" style="5" customWidth="1"/>
-    <col min="2" max="2" width="101.734" style="5" customWidth="1"/>
-    <col min="3" max="3" width="101.734" style="5" customWidth="1"/>
-    <col min="4" max="4" width="101.734" style="5" customWidth="1"/>
-    <col min="5" max="256" width="16.3516" style="5" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" style="5" customWidth="1"/>
+    <col min="2" max="4" width="101.77734375" style="5" customWidth="1"/>
+    <col min="5" max="256" width="16.33203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.2" customHeight="1">
-      <c r="A1" t="s" s="6">
+    <row r="1" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="6">
+      <c r="B1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s" s="6">
+      <c r="C1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s" s="6">
+      <c r="D1" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" ht="13.2" customHeight="1">
+    <row r="2" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="8">
+      <c r="B2" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s" s="9">
+      <c r="D2" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <f t="shared" ref="A3:A34" si="0">A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s" s="8">
+    </row>
+    <row r="4" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" ht="13" customHeight="1">
-      <c r="A3" s="10">
-        <f>A2+1</f>
-        <v>2</v>
-      </c>
-      <c r="B3" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" t="s" s="13">
+      <c r="D4" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" ht="13" customHeight="1">
-      <c r="A4" s="10">
-        <f>A3+1</f>
+    <row r="5" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="13">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s" s="15">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" ht="13" customHeight="1">
-      <c r="A5" s="10">
-        <f>A4+1</f>
-        <v>4</v>
-      </c>
-      <c r="B5" t="s" s="11">
+    </row>
+    <row r="6" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s" s="14">
+      <c r="C6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D5" t="s" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" ht="13" customHeight="1">
-      <c r="A6" s="10">
-        <f>A5+1</f>
-        <v>5</v>
-      </c>
-      <c r="B6" t="s" s="16">
+      <c r="D6" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="C6" t="s" s="14">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s" s="16">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" ht="13" customHeight="1">
-      <c r="A7" s="10">
-        <f>A6+1</f>
-        <v>6</v>
-      </c>
-      <c r="B7" t="s" s="11">
-        <v>22</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
     </row>
-    <row r="8" ht="13" customHeight="1">
+    <row r="8" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
-        <f>A7+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" t="s" s="17">
+      <c r="B8" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="14"/>
+    </row>
+    <row r="9" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="14"/>
+    </row>
+    <row r="10" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="14"/>
+    </row>
+    <row r="11" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="14"/>
+    </row>
+    <row r="12" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s" s="14">
+      <c r="C12" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="14"/>
+    </row>
+    <row r="13" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="14"/>
+    </row>
+    <row r="14" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D8" s="14"/>
-    </row>
-    <row r="9" ht="13" customHeight="1">
-      <c r="A9" s="10">
-        <f>A8+1</f>
-        <v>8</v>
-      </c>
-      <c r="B9" t="s" s="17">
+      <c r="B14" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="14"/>
+    </row>
+    <row r="15" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="14"/>
+    </row>
+    <row r="17" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="14"/>
+    </row>
+    <row r="20" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="14"/>
+    </row>
+    <row r="21" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="14"/>
+    </row>
+    <row r="23" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="14"/>
+    </row>
+    <row r="24" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="14"/>
+    </row>
+    <row r="25" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C9" t="s" s="14">
+      <c r="B25" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="14"/>
+    </row>
+    <row r="26" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="14"/>
+    </row>
+    <row r="27" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="14"/>
+    </row>
+    <row r="28" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="14"/>
+    </row>
+    <row r="29" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="14"/>
+    </row>
+    <row r="30" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="14"/>
+    </row>
+    <row r="31" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="14"/>
+    </row>
+    <row r="32" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="14"/>
+    </row>
+    <row r="33" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="14"/>
+    </row>
+    <row r="34" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="10">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="14"/>
+    </row>
+    <row r="35" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
+        <f t="shared" ref="A35:A66" si="1">A34+1</f>
+        <v>34</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="14"/>
+    </row>
+    <row r="36" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="10">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="14"/>
+    </row>
+    <row r="37" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="10">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="14"/>
-    </row>
-    <row r="10" ht="13" customHeight="1">
-      <c r="A10" s="10">
-        <f>A9+1</f>
-        <v>9</v>
-      </c>
-      <c r="B10" t="s" s="17">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s" s="14">
+      <c r="D37" s="14"/>
+    </row>
+    <row r="38" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="10">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="14"/>
-    </row>
-    <row r="11" ht="13" customHeight="1">
-      <c r="A11" s="10">
-        <f>A10+1</f>
-        <v>10</v>
-      </c>
-      <c r="B11" t="s" s="17">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s" s="14">
+      <c r="D38" s="14"/>
+    </row>
+    <row r="39" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="10">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="14"/>
-    </row>
-    <row r="12" ht="13" customHeight="1">
-      <c r="A12" s="10">
-        <f>A11+1</f>
-        <v>11</v>
-      </c>
-      <c r="B12" t="s" s="17">
-        <v>27</v>
-      </c>
-      <c r="C12" t="s" s="14">
+      <c r="D39" s="14"/>
+    </row>
+    <row r="40" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="10">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="14"/>
-    </row>
-    <row r="13" ht="13" customHeight="1">
-      <c r="A13" s="10">
-        <f>A12+1</f>
-        <v>12</v>
-      </c>
-      <c r="B13" t="s" s="17">
-        <v>28</v>
-      </c>
-      <c r="C13" t="s" s="14">
+      <c r="D40" s="14"/>
+    </row>
+    <row r="41" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="10">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="14"/>
-    </row>
-    <row r="14" ht="13" customHeight="1">
-      <c r="A14" s="10">
-        <f>A13+1</f>
+      <c r="D41" s="14"/>
+    </row>
+    <row r="42" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="10">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s" s="17">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s" s="14">
+      <c r="D42" s="14"/>
+    </row>
+    <row r="43" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="10">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="14"/>
-    </row>
-    <row r="15" ht="13" customHeight="1">
-      <c r="A15" s="10">
-        <f>A14+1</f>
-        <v>14</v>
-      </c>
-      <c r="B15" t="s" s="17">
-        <v>30</v>
-      </c>
-      <c r="C15" t="s" s="14">
+      <c r="D43" s="14"/>
+    </row>
+    <row r="44" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="10">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="14"/>
-    </row>
-    <row r="16" ht="13" customHeight="1">
-      <c r="A16" s="10">
-        <f>A15+1</f>
+      <c r="D44" s="14"/>
+    </row>
+    <row r="45" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="10">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="14"/>
+    </row>
+    <row r="46" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="10">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="14"/>
+    </row>
+    <row r="47" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="10">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="14"/>
+    </row>
+    <row r="48" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="10">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="14"/>
+    </row>
+    <row r="49" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="10">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="14"/>
+    </row>
+    <row r="50" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="10">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="14"/>
+    </row>
+    <row r="51" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="10">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="14"/>
+    </row>
+    <row r="52" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="10">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="14"/>
+    </row>
+    <row r="53" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="10">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="14"/>
+    </row>
+    <row r="54" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="10">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="14"/>
+    </row>
+    <row r="55" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="10">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="14"/>
+    </row>
+    <row r="56" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="10">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="14"/>
+    </row>
+    <row r="57" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="10">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="14"/>
+    </row>
+    <row r="58" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="10">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="14"/>
+    </row>
+    <row r="59" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="10">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" s="14"/>
+    </row>
+    <row r="60" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="10">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="10">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" s="14"/>
+    </row>
+    <row r="62" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="10">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="14"/>
+    </row>
+    <row r="63" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="10">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="14"/>
+    </row>
+    <row r="64" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="10">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="14"/>
+    </row>
+    <row r="65" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="10">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s" s="17">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s" s="14">
-        <v>13</v>
-      </c>
-      <c r="D16" s="14"/>
-    </row>
-    <row r="17" ht="13" customHeight="1">
-      <c r="A17" s="10">
-        <f>A16+1</f>
-        <v>16</v>
-      </c>
-      <c r="B17" t="s" s="17">
-        <v>32</v>
-      </c>
-      <c r="C17" t="s" s="14">
-        <v>13</v>
-      </c>
-      <c r="D17" s="14"/>
-    </row>
-    <row r="18" ht="13" customHeight="1">
-      <c r="A18" s="10">
-        <f>A17+1</f>
-        <v>17</v>
-      </c>
-      <c r="B18" t="s" s="17">
-        <v>33</v>
-      </c>
-      <c r="C18" t="s" s="14">
-        <v>13</v>
-      </c>
-      <c r="D18" s="14"/>
-    </row>
-    <row r="19" ht="13" customHeight="1">
-      <c r="A19" s="10">
-        <f>A18+1</f>
-        <v>18</v>
-      </c>
-      <c r="B19" t="s" s="17">
-        <v>34</v>
-      </c>
-      <c r="C19" t="s" s="14">
-        <v>13</v>
-      </c>
-      <c r="D19" s="14"/>
-    </row>
-    <row r="20" ht="13" customHeight="1">
-      <c r="A20" s="10">
-        <f>A19+1</f>
+      <c r="D65" s="14"/>
+    </row>
+    <row r="66" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="10">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66" s="14"/>
+    </row>
+    <row r="67" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="10">
+        <f t="shared" ref="A67:A83" si="2">A66+1</f>
+        <v>66</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" s="14"/>
+    </row>
+    <row r="68" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="10">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" s="14"/>
+    </row>
+    <row r="69" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="10">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="B69" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" s="14"/>
+    </row>
+    <row r="70" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="10">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" s="14"/>
+    </row>
+    <row r="71" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="10">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="B71" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" s="14"/>
+    </row>
+    <row r="72" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="10">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="B72" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" s="14"/>
+    </row>
+    <row r="73" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="10">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C73" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B20" t="s" s="17">
-        <v>35</v>
-      </c>
-      <c r="C20" t="s" s="14">
-        <v>13</v>
-      </c>
-      <c r="D20" s="14"/>
-    </row>
-    <row r="21" ht="13" customHeight="1">
-      <c r="A21" s="10">
-        <f>A20+1</f>
-        <v>20</v>
-      </c>
-      <c r="B21" t="s" s="17">
-        <v>36</v>
-      </c>
-      <c r="C21" t="s" s="14">
-        <v>13</v>
-      </c>
-      <c r="D21" s="14"/>
-    </row>
-    <row r="22" ht="13" customHeight="1">
-      <c r="A22" s="10">
-        <f>A21+1</f>
-        <v>21</v>
-      </c>
-      <c r="B22" t="s" s="17">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="14">
-        <v>13</v>
-      </c>
-      <c r="D22" s="14"/>
-    </row>
-    <row r="23" ht="13" customHeight="1">
-      <c r="A23" s="10">
-        <f>A22+1</f>
-        <v>22</v>
-      </c>
-      <c r="B23" t="s" s="17">
-        <v>38</v>
-      </c>
-      <c r="C23" t="s" s="14">
-        <v>13</v>
-      </c>
-      <c r="D23" s="14"/>
-    </row>
-    <row r="24" ht="13" customHeight="1">
-      <c r="A24" s="10">
-        <f>A23+1</f>
-        <v>23</v>
-      </c>
-      <c r="B24" t="s" s="17">
-        <v>39</v>
-      </c>
-      <c r="C24" t="s" s="14">
-        <v>13</v>
-      </c>
-      <c r="D24" s="14"/>
-    </row>
-    <row r="25" ht="13" customHeight="1">
-      <c r="A25" s="10">
-        <f>A24+1</f>
-        <v>24</v>
-      </c>
-      <c r="B25" t="s" s="17">
-        <v>40</v>
-      </c>
-      <c r="C25" t="s" s="14">
-        <v>13</v>
-      </c>
-      <c r="D25" s="14"/>
-    </row>
-    <row r="26" ht="13" customHeight="1">
-      <c r="A26" s="10">
-        <f>A25+1</f>
-        <v>25</v>
-      </c>
-      <c r="B26" t="s" s="17">
-        <v>41</v>
-      </c>
-      <c r="C26" t="s" s="14">
-        <v>13</v>
-      </c>
-      <c r="D26" s="14"/>
-    </row>
-    <row r="27" ht="13" customHeight="1">
-      <c r="A27" s="10">
-        <f>A26+1</f>
-        <v>26</v>
-      </c>
-      <c r="B27" t="s" s="11">
-        <v>42</v>
-      </c>
-      <c r="C27" t="s" s="14">
+      <c r="D73" s="14"/>
+    </row>
+    <row r="74" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="10">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C74" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="14"/>
-    </row>
-    <row r="28" ht="13" customHeight="1">
-      <c r="A28" s="10">
-        <f>A27+1</f>
-        <v>27</v>
-      </c>
-      <c r="B28" t="s" s="17">
-        <v>43</v>
-      </c>
-      <c r="C28" t="s" s="14">
-        <v>13</v>
-      </c>
-      <c r="D28" s="14"/>
-    </row>
-    <row r="29" ht="13" customHeight="1">
-      <c r="A29" s="10">
-        <f>A28+1</f>
-        <v>28</v>
-      </c>
-      <c r="B29" t="s" s="17">
-        <v>44</v>
-      </c>
-      <c r="C29" t="s" s="14">
-        <v>13</v>
-      </c>
-      <c r="D29" s="14"/>
-    </row>
-    <row r="30" ht="13" customHeight="1">
-      <c r="A30" s="10">
-        <f>A29+1</f>
-        <v>29</v>
-      </c>
-      <c r="B30" t="s" s="17">
-        <v>45</v>
-      </c>
-      <c r="C30" t="s" s="14">
-        <v>13</v>
-      </c>
-      <c r="D30" s="14"/>
-    </row>
-    <row r="31" ht="13" customHeight="1">
-      <c r="A31" s="10">
-        <f>A30+1</f>
-        <v>30</v>
-      </c>
-      <c r="B31" t="s" s="17">
-        <v>46</v>
-      </c>
-      <c r="C31" t="s" s="14">
-        <v>13</v>
-      </c>
-      <c r="D31" s="14"/>
-    </row>
-    <row r="32" ht="13" customHeight="1">
-      <c r="A32" s="10">
-        <f>A31+1</f>
-        <v>31</v>
-      </c>
-      <c r="B32" t="s" s="17">
-        <v>47</v>
-      </c>
-      <c r="C32" t="s" s="14">
-        <v>13</v>
-      </c>
-      <c r="D32" s="14"/>
-    </row>
-    <row r="33" ht="13" customHeight="1">
-      <c r="A33" s="10">
-        <f>A32+1</f>
-        <v>32</v>
-      </c>
-      <c r="B33" t="s" s="17">
-        <v>48</v>
-      </c>
-      <c r="C33" t="s" s="14">
-        <v>13</v>
-      </c>
-      <c r="D33" s="14"/>
-    </row>
-    <row r="34" ht="13" customHeight="1">
-      <c r="A34" s="10">
-        <f>A33+1</f>
-        <v>33</v>
-      </c>
-      <c r="B34" t="s" s="17">
-        <v>49</v>
-      </c>
-      <c r="C34" t="s" s="14">
-        <v>13</v>
-      </c>
-      <c r="D34" s="14"/>
-    </row>
-    <row r="35" ht="13" customHeight="1">
-      <c r="A35" s="10">
-        <f>A34+1</f>
-        <v>34</v>
-      </c>
-      <c r="B35" t="s" s="17">
-        <v>50</v>
-      </c>
-      <c r="C35" t="s" s="14">
-        <v>13</v>
-      </c>
-      <c r="D35" s="14"/>
-    </row>
-    <row r="36" ht="13" customHeight="1">
-      <c r="A36" s="10">
-        <f>A35+1</f>
-        <v>35</v>
-      </c>
-      <c r="B36" t="s" s="17">
-        <v>51</v>
-      </c>
-      <c r="C36" t="s" s="14">
-        <v>13</v>
-      </c>
-      <c r="D36" s="14"/>
-    </row>
-    <row r="37" ht="13" customHeight="1">
-      <c r="A37" s="10">
-        <f>A36+1</f>
-        <v>36</v>
-      </c>
-      <c r="B37" t="s" s="13">
-        <v>52</v>
-      </c>
-      <c r="C37" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="D37" s="14"/>
-    </row>
-    <row r="38" ht="13" customHeight="1">
-      <c r="A38" s="10">
-        <f>A37+1</f>
-        <v>37</v>
-      </c>
-      <c r="B38" t="s" s="13">
-        <v>53</v>
-      </c>
-      <c r="C38" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="D38" s="14"/>
-    </row>
-    <row r="39" ht="13" customHeight="1">
-      <c r="A39" s="10">
-        <f>A38+1</f>
-        <v>38</v>
-      </c>
-      <c r="B39" t="s" s="13">
-        <v>54</v>
-      </c>
-      <c r="C39" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="D39" s="14"/>
-    </row>
-    <row r="40" ht="13" customHeight="1">
-      <c r="A40" s="10">
-        <f>A39+1</f>
-        <v>39</v>
-      </c>
-      <c r="B40" t="s" s="13">
-        <v>55</v>
-      </c>
-      <c r="C40" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="D40" s="14"/>
-    </row>
-    <row r="41" ht="13" customHeight="1">
-      <c r="A41" s="10">
-        <f>A40+1</f>
-        <v>40</v>
-      </c>
-      <c r="B41" t="s" s="13">
-        <v>56</v>
-      </c>
-      <c r="C41" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="D41" s="14"/>
-    </row>
-    <row r="42" ht="13" customHeight="1">
-      <c r="A42" s="10">
-        <f>A41+1</f>
-        <v>41</v>
-      </c>
-      <c r="B42" t="s" s="13">
-        <v>57</v>
-      </c>
-      <c r="C42" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="D42" s="14"/>
-    </row>
-    <row r="43" ht="13" customHeight="1">
-      <c r="A43" s="10">
-        <f>A42+1</f>
-        <v>42</v>
-      </c>
-      <c r="B43" t="s" s="13">
-        <v>58</v>
-      </c>
-      <c r="C43" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="D43" s="14"/>
-    </row>
-    <row r="44" ht="13" customHeight="1">
-      <c r="A44" s="10">
-        <f>A43+1</f>
-        <v>43</v>
-      </c>
-      <c r="B44" t="s" s="13">
-        <v>59</v>
-      </c>
-      <c r="C44" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="D44" s="14"/>
-    </row>
-    <row r="45" ht="13" customHeight="1">
-      <c r="A45" s="10">
-        <f>A44+1</f>
-        <v>44</v>
-      </c>
-      <c r="B45" t="s" s="13">
-        <v>60</v>
-      </c>
-      <c r="C45" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="D45" s="14"/>
-    </row>
-    <row r="46" ht="13" customHeight="1">
-      <c r="A46" s="10">
-        <f>A45+1</f>
-        <v>45</v>
-      </c>
-      <c r="B46" t="s" s="13">
-        <v>61</v>
-      </c>
-      <c r="C46" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="D46" s="14"/>
-    </row>
-    <row r="47" ht="13" customHeight="1">
-      <c r="A47" s="10">
-        <f>A46+1</f>
-        <v>46</v>
-      </c>
-      <c r="B47" t="s" s="13">
-        <v>62</v>
-      </c>
-      <c r="C47" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="D47" s="14"/>
-    </row>
-    <row r="48" ht="13" customHeight="1">
-      <c r="A48" s="10">
-        <f>A47+1</f>
-        <v>47</v>
-      </c>
-      <c r="B48" t="s" s="13">
-        <v>63</v>
-      </c>
-      <c r="C48" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="D48" s="14"/>
-    </row>
-    <row r="49" ht="13" customHeight="1">
-      <c r="A49" s="10">
-        <f>A48+1</f>
-        <v>48</v>
-      </c>
-      <c r="B49" t="s" s="13">
-        <v>64</v>
-      </c>
-      <c r="C49" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="D49" s="14"/>
-    </row>
-    <row r="50" ht="13" customHeight="1">
-      <c r="A50" s="10">
-        <f>A49+1</f>
-        <v>49</v>
-      </c>
-      <c r="B50" t="s" s="13">
-        <v>65</v>
-      </c>
-      <c r="C50" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="D50" s="14"/>
-    </row>
-    <row r="51" ht="13" customHeight="1">
-      <c r="A51" s="10">
-        <f>A50+1</f>
-        <v>50</v>
-      </c>
-      <c r="B51" t="s" s="13">
-        <v>66</v>
-      </c>
-      <c r="C51" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="D51" s="14"/>
-    </row>
-    <row r="52" ht="13" customHeight="1">
-      <c r="A52" s="10">
-        <f>A51+1</f>
-        <v>51</v>
-      </c>
-      <c r="B52" t="s" s="13">
-        <v>67</v>
-      </c>
-      <c r="C52" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="D52" s="14"/>
-    </row>
-    <row r="53" ht="13" customHeight="1">
-      <c r="A53" s="10">
-        <f>A52+1</f>
-        <v>52</v>
-      </c>
-      <c r="B53" t="s" s="13">
-        <v>68</v>
-      </c>
-      <c r="C53" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="D53" s="14"/>
-    </row>
-    <row r="54" ht="13" customHeight="1">
-      <c r="A54" s="10">
-        <f>A53+1</f>
-        <v>53</v>
-      </c>
-      <c r="B54" t="s" s="13">
-        <v>69</v>
-      </c>
-      <c r="C54" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="D54" s="14"/>
-    </row>
-    <row r="55" ht="13" customHeight="1">
-      <c r="A55" s="10">
-        <f>A54+1</f>
-        <v>54</v>
-      </c>
-      <c r="B55" t="s" s="13">
-        <v>70</v>
-      </c>
-      <c r="C55" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="D55" s="14"/>
-    </row>
-    <row r="56" ht="13" customHeight="1">
-      <c r="A56" s="10">
-        <f>A55+1</f>
-        <v>55</v>
-      </c>
-      <c r="B56" t="s" s="13">
-        <v>71</v>
-      </c>
-      <c r="C56" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="D56" s="14"/>
-    </row>
-    <row r="57" ht="13" customHeight="1">
-      <c r="A57" s="10">
-        <f>A56+1</f>
-        <v>56</v>
-      </c>
-      <c r="B57" t="s" s="13">
-        <v>72</v>
-      </c>
-      <c r="C57" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="D57" s="14"/>
-    </row>
-    <row r="58" ht="13" customHeight="1">
-      <c r="A58" s="10">
-        <f>A57+1</f>
-        <v>57</v>
-      </c>
-      <c r="B58" t="s" s="13">
-        <v>73</v>
-      </c>
-      <c r="C58" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="D58" s="14"/>
-    </row>
-    <row r="59" ht="13" customHeight="1">
-      <c r="A59" s="10">
-        <f>A58+1</f>
-        <v>58</v>
-      </c>
-      <c r="B59" t="s" s="13">
+      <c r="D74" s="14"/>
+    </row>
+    <row r="75" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="10">
+        <f t="shared" si="2"/>
         <v>74</v>
       </c>
-      <c r="C59" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="D59" s="14"/>
-    </row>
-    <row r="60" ht="13" customHeight="1">
-      <c r="A60" s="10">
-        <f>A59+1</f>
-        <v>59</v>
-      </c>
-      <c r="B60" t="s" s="13">
+      <c r="B75" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75" s="14"/>
+    </row>
+    <row r="76" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="10">
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="C60" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="D60" s="14"/>
-    </row>
-    <row r="61" ht="13" customHeight="1">
-      <c r="A61" s="10">
-        <f>A60+1</f>
-        <v>60</v>
-      </c>
-      <c r="B61" t="s" s="13">
+      <c r="B76" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C76" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D76" s="14"/>
+    </row>
+    <row r="77" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="10">
+        <f t="shared" si="2"/>
         <v>76</v>
       </c>
-      <c r="C61" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="D61" s="14"/>
-    </row>
-    <row r="62" ht="13" customHeight="1">
-      <c r="A62" s="10">
-        <f>A61+1</f>
-        <v>61</v>
-      </c>
-      <c r="B62" t="s" s="13">
+      <c r="B77" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C77" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77" s="14"/>
+    </row>
+    <row r="78" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="10">
+        <f t="shared" si="2"/>
         <v>77</v>
       </c>
-      <c r="C62" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="D62" s="14"/>
-    </row>
-    <row r="63" ht="13" customHeight="1">
-      <c r="A63" s="10">
-        <f>A62+1</f>
-        <v>62</v>
-      </c>
-      <c r="B63" t="s" s="13">
+      <c r="B78" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C78" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78" s="14"/>
+    </row>
+    <row r="79" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="10">
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
-      <c r="C63" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="D63" s="14"/>
-    </row>
-    <row r="64" ht="13" customHeight="1">
-      <c r="A64" s="10">
-        <f>A63+1</f>
-        <v>63</v>
-      </c>
-      <c r="B64" t="s" s="13">
+      <c r="B79" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79" s="14"/>
+    </row>
+    <row r="80" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="10">
+        <f t="shared" si="2"/>
         <v>79</v>
       </c>
-      <c r="C64" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="D64" s="14"/>
-    </row>
-    <row r="65" ht="13" customHeight="1">
-      <c r="A65" s="10">
-        <f>A64+1</f>
-        <v>64</v>
-      </c>
-      <c r="B65" t="s" s="18">
+      <c r="B80" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C80" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D80" s="14"/>
+    </row>
+    <row r="81" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="10">
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="C65" t="s" s="14">
-        <v>17</v>
-      </c>
-      <c r="D65" s="14"/>
-    </row>
-    <row r="66" ht="13" customHeight="1">
-      <c r="A66" s="10">
-        <f>A65+1</f>
-        <v>65</v>
-      </c>
-      <c r="B66" t="s" s="18">
+      <c r="B81" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C81" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81" s="14"/>
+    </row>
+    <row r="82" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="10">
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
-      <c r="C66" t="s" s="14">
-        <v>17</v>
-      </c>
-      <c r="D66" s="14"/>
-    </row>
-    <row r="67" ht="13" customHeight="1">
-      <c r="A67" s="10">
-        <f>A66+1</f>
-        <v>66</v>
-      </c>
-      <c r="B67" t="s" s="18">
+      <c r="B82" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C82" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D82" s="14"/>
+    </row>
+    <row r="83" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="10">
+        <f t="shared" si="2"/>
         <v>82</v>
       </c>
-      <c r="C67" t="s" s="14">
-        <v>17</v>
-      </c>
-      <c r="D67" s="14"/>
-    </row>
-    <row r="68" ht="13" customHeight="1">
-      <c r="A68" s="10">
-        <f>A67+1</f>
-        <v>67</v>
-      </c>
-      <c r="B68" t="s" s="18">
-        <v>83</v>
-      </c>
-      <c r="C68" t="s" s="14">
-        <v>17</v>
-      </c>
-      <c r="D68" s="14"/>
-    </row>
-    <row r="69" ht="13" customHeight="1">
-      <c r="A69" s="10">
-        <f>A68+1</f>
-        <v>68</v>
-      </c>
-      <c r="B69" t="s" s="18">
-        <v>84</v>
-      </c>
-      <c r="C69" t="s" s="14">
-        <v>17</v>
-      </c>
-      <c r="D69" s="14"/>
-    </row>
-    <row r="70" ht="13" customHeight="1">
-      <c r="A70" s="10">
-        <f>A69+1</f>
-        <v>69</v>
-      </c>
-      <c r="B70" t="s" s="18">
-        <v>85</v>
-      </c>
-      <c r="C70" t="s" s="14">
-        <v>17</v>
-      </c>
-      <c r="D70" s="14"/>
-    </row>
-    <row r="71" ht="13" customHeight="1">
-      <c r="A71" s="10">
-        <f>A70+1</f>
-        <v>70</v>
-      </c>
-      <c r="B71" t="s" s="18">
-        <v>86</v>
-      </c>
-      <c r="C71" t="s" s="14">
-        <v>17</v>
-      </c>
-      <c r="D71" s="14"/>
-    </row>
-    <row r="72" ht="13" customHeight="1">
-      <c r="A72" s="10">
-        <f>A71+1</f>
-        <v>71</v>
-      </c>
-      <c r="B72" t="s" s="18">
-        <v>87</v>
-      </c>
-      <c r="C72" t="s" s="14">
-        <v>17</v>
-      </c>
-      <c r="D72" s="14"/>
-    </row>
-    <row r="73" ht="13" customHeight="1">
-      <c r="A73" s="10">
-        <f>A72+1</f>
-        <v>72</v>
-      </c>
-      <c r="B73" t="s" s="16">
-        <v>88</v>
-      </c>
-      <c r="C73" t="s" s="14">
-        <v>21</v>
-      </c>
-      <c r="D73" s="14"/>
-    </row>
-    <row r="74" ht="13" customHeight="1">
-      <c r="A74" s="10">
-        <f>A73+1</f>
-        <v>73</v>
-      </c>
-      <c r="B74" t="s" s="16">
-        <v>89</v>
-      </c>
-      <c r="C74" t="s" s="14">
-        <v>21</v>
-      </c>
-      <c r="D74" s="14"/>
-    </row>
-    <row r="75" ht="13" customHeight="1">
-      <c r="A75" s="10">
-        <f>A74+1</f>
-        <v>74</v>
-      </c>
-      <c r="B75" t="s" s="16">
-        <v>90</v>
-      </c>
-      <c r="C75" t="s" s="14">
-        <v>21</v>
-      </c>
-      <c r="D75" s="14"/>
-    </row>
-    <row r="76" ht="13" customHeight="1">
-      <c r="A76" s="10">
-        <f>A75+1</f>
-        <v>75</v>
-      </c>
-      <c r="B76" t="s" s="16">
-        <v>91</v>
-      </c>
-      <c r="C76" t="s" s="14">
-        <v>21</v>
-      </c>
-      <c r="D76" s="14"/>
-    </row>
-    <row r="77" ht="13" customHeight="1">
-      <c r="A77" s="10">
-        <f>A76+1</f>
-        <v>76</v>
-      </c>
-      <c r="B77" t="s" s="16">
-        <v>92</v>
-      </c>
-      <c r="C77" t="s" s="14">
-        <v>21</v>
-      </c>
-      <c r="D77" s="14"/>
-    </row>
-    <row r="78" ht="13" customHeight="1">
-      <c r="A78" s="10">
-        <f>A77+1</f>
-        <v>77</v>
-      </c>
-      <c r="B78" t="s" s="16">
+      <c r="B83" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C78" t="s" s="14">
-        <v>21</v>
-      </c>
-      <c r="D78" s="14"/>
-    </row>
-    <row r="79" ht="13" customHeight="1">
-      <c r="A79" s="10">
-        <f>A78+1</f>
-        <v>78</v>
-      </c>
-      <c r="B79" t="s" s="16">
-        <v>94</v>
-      </c>
-      <c r="C79" t="s" s="14">
-        <v>21</v>
-      </c>
-      <c r="D79" s="14"/>
-    </row>
-    <row r="80" ht="13" customHeight="1">
-      <c r="A80" s="10">
-        <f>A79+1</f>
-        <v>79</v>
-      </c>
-      <c r="B80" t="s" s="16">
-        <v>95</v>
-      </c>
-      <c r="C80" t="s" s="14">
-        <v>21</v>
-      </c>
-      <c r="D80" s="14"/>
-    </row>
-    <row r="81" ht="13" customHeight="1">
-      <c r="A81" s="10">
-        <f>A80+1</f>
-        <v>80</v>
-      </c>
-      <c r="B81" t="s" s="16">
-        <v>96</v>
-      </c>
-      <c r="C81" t="s" s="14">
-        <v>21</v>
-      </c>
-      <c r="D81" s="14"/>
-    </row>
-    <row r="82" ht="13" customHeight="1">
-      <c r="A82" s="10">
-        <f>A81+1</f>
-        <v>81</v>
-      </c>
-      <c r="B82" t="s" s="16">
-        <v>97</v>
-      </c>
-      <c r="C82" t="s" s="14">
-        <v>21</v>
-      </c>
-      <c r="D82" s="14"/>
-    </row>
-    <row r="83" ht="13" customHeight="1">
-      <c r="A83" s="10">
-        <f>A82+1</f>
-        <v>82</v>
-      </c>
-      <c r="B83" t="s" s="16">
-        <v>98</v>
-      </c>
-      <c r="C83" t="s" s="14">
-        <v>21</v>
+      <c r="C83" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="D83" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
